--- a/Archivos CSV/Inventory Location/inventory_location template site_MaajiCO.xlsx
+++ b/Archivos CSV/Inventory Location/inventory_location template site_MaajiCO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvargasp\Documents\Archivos MAAJI\Archivos CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvargasp\Documents\Archivos MAAJI\Archivos CSV\Inventory Location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AB9A096-7E04-473A-B73B-FC57A58A99B2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE620428-6145-4455-8C0B-91A980984922}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" xr2:uid="{F1F2D59A-6786-4EBD-AB3D-AB089D2830A2}"/>
   </bookViews>
@@ -867,7 +867,7 @@
   <dimension ref="A1:AZ9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M2" sqref="M2:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Archivos CSV/Inventory Location/inventory_location template site_MaajiCO.xlsx
+++ b/Archivos CSV/Inventory Location/inventory_location template site_MaajiCO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvargasp\Documents\Archivos MAAJI\Archivos CSV\Inventory Location\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvargasp\Documents\Commerce-Conect-FF\Archivos CSV\Inventory Location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE620428-6145-4455-8C0B-91A980984922}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33389238-41C7-4BB6-9E09-4BD126A11284}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" xr2:uid="{F1F2D59A-6786-4EBD-AB3D-AB089D2830A2}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
   <si>
     <t>name</t>
   </si>
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>CO</t>
-  </si>
-  <si>
-    <t>(GMT-05:00) Bogota</t>
   </si>
   <si>
     <t>(1) 5306581</t>
@@ -866,13 +863,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774A88B6-025C-4213-9962-8FA505AD9F0D}">
   <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -1002,7 +999,7 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -1014,7 +1011,7 @@
         <v>27</v>
       </c>
       <c r="AD1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE1" t="s">
         <v>28</v>
@@ -1026,7 +1023,7 @@
         <v>30</v>
       </c>
       <c r="AH1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI1" t="s">
         <v>31</v>
@@ -1038,7 +1035,7 @@
         <v>33</v>
       </c>
       <c r="AL1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AM1" t="s">
         <v>34</v>
@@ -1050,7 +1047,7 @@
         <v>36</v>
       </c>
       <c r="AP1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AQ1" t="s">
         <v>37</v>
@@ -1062,7 +1059,7 @@
         <v>39</v>
       </c>
       <c r="AT1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AU1" t="s">
         <v>40</v>
@@ -1074,7 +1071,7 @@
         <v>42</v>
       </c>
       <c r="AX1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AY1" t="s">
         <v>43</v>
@@ -1088,7 +1085,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -1109,28 +1106,28 @@
         <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" t="s">
-        <v>53</v>
-      </c>
       <c r="V2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" t="s">
         <v>110</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>111</v>
       </c>
       <c r="AA2" s="1">
         <v>0.41666666666666669</v>
@@ -1139,10 +1136,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AC2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE2" s="1">
         <v>0.41666666666666669</v>
@@ -1151,10 +1148,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AG2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH2" t="s">
         <v>113</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>114</v>
       </c>
       <c r="AI2" s="1">
         <v>0.41666666666666669</v>
@@ -1163,10 +1160,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AK2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AL2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AM2" s="1">
         <v>0.41666666666666669</v>
@@ -1175,34 +1172,34 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AO2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP2" t="s">
         <v>116</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS2" t="s">
         <v>117</v>
       </c>
-      <c r="AQ2" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>118</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW2" t="s">
         <v>119</v>
       </c>
-      <c r="AU2" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>120</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>121</v>
       </c>
       <c r="AY2" s="1">
         <v>0.5</v>
@@ -1213,124 +1210,124 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>56</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>58</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
       </c>
       <c r="J3" t="s">
         <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P3">
         <v>3234886286</v>
       </c>
       <c r="V3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z3" t="s">
         <v>110</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD3" t="s">
         <v>111</v>
       </c>
-      <c r="AA3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AG3" t="s">
         <v>112</v>
       </c>
-      <c r="AE3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL3" t="s">
         <v>114</v>
       </c>
-      <c r="AI3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AM3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AO3" t="s">
         <v>115</v>
       </c>
-      <c r="AM3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
         <v>116</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS3" t="s">
         <v>117</v>
       </c>
-      <c r="AQ3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>118</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AU3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW3" t="s">
         <v>119</v>
       </c>
-      <c r="AU3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>120</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>121</v>
       </c>
       <c r="AY3" s="1">
         <v>0.45833333333333331</v>
@@ -1341,25 +1338,25 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>61</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" t="s">
-        <v>64</v>
-      </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
@@ -1368,97 +1365,97 @@
         <v>130001</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="P4">
         <v>6643079</v>
       </c>
       <c r="V4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z4" t="s">
         <v>110</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD4" t="s">
         <v>111</v>
       </c>
-      <c r="AA4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AE4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AG4" t="s">
         <v>112</v>
       </c>
-      <c r="AE4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>113</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL4" t="s">
         <v>114</v>
       </c>
-      <c r="AI4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL4" t="s">
+      <c r="AM4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AO4" t="s">
         <v>115</v>
       </c>
-      <c r="AM4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AO4" t="s">
+      <c r="AP4" t="s">
         <v>116</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS4" t="s">
         <v>117</v>
       </c>
-      <c r="AQ4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>118</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW4" t="s">
         <v>119</v>
       </c>
-      <c r="AU4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>120</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>121</v>
       </c>
       <c r="AY4" s="1">
         <v>0.45833333333333331</v>
@@ -1469,124 +1466,124 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
         <v>65</v>
       </c>
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>68</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>69</v>
-      </c>
-      <c r="I5" t="s">
-        <v>70</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y5" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z5" t="s">
         <v>110</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD5" t="s">
         <v>111</v>
       </c>
-      <c r="AA5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AG5" t="s">
         <v>112</v>
       </c>
-      <c r="AE5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>113</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL5" t="s">
         <v>114</v>
       </c>
-      <c r="AI5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL5" t="s">
+      <c r="AM5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AO5" t="s">
         <v>115</v>
       </c>
-      <c r="AM5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>116</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS5" t="s">
         <v>117</v>
       </c>
-      <c r="AQ5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>118</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AU5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW5" t="s">
         <v>119</v>
       </c>
-      <c r="AU5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>120</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>121</v>
       </c>
       <c r="AY5" s="1">
         <v>0.45833333333333331</v>
@@ -1597,25 +1594,25 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
         <v>72</v>
       </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>73</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>74</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>75</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>76</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -1624,25 +1621,25 @@
         <v>760001</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P6">
         <v>3481149</v>
       </c>
       <c r="V6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z6" t="s">
         <v>110</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>111</v>
       </c>
       <c r="AA6" s="1">
         <v>0.41666666666666669</v>
@@ -1651,10 +1648,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AC6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE6" s="1">
         <v>0.41666666666666669</v>
@@ -1663,10 +1660,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AG6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH6" t="s">
         <v>113</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>114</v>
       </c>
       <c r="AI6" s="1">
         <v>0.41666666666666669</v>
@@ -1675,10 +1672,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AK6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AL6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AM6" s="1">
         <v>0.41666666666666669</v>
@@ -1687,34 +1684,34 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AO6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP6" t="s">
         <v>116</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS6" t="s">
         <v>117</v>
       </c>
-      <c r="AQ6" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR6" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS6" t="s">
+      <c r="AT6" t="s">
         <v>118</v>
       </c>
-      <c r="AT6" t="s">
+      <c r="AU6" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW6" t="s">
         <v>119</v>
       </c>
-      <c r="AU6" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV6" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>120</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>121</v>
       </c>
       <c r="AY6" s="1">
         <v>0.45833333333333331</v>
@@ -1725,25 +1722,25 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>80</v>
       </c>
-      <c r="F7" t="s">
-        <v>81</v>
-      </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
@@ -1752,25 +1749,25 @@
         <v>130001</v>
       </c>
       <c r="L7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P7">
         <v>3205600544</v>
       </c>
       <c r="V7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z7" t="s">
         <v>110</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>111</v>
       </c>
       <c r="AA7" s="1">
         <v>0.41666666666666669</v>
@@ -1779,10 +1776,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AC7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE7" s="1">
         <v>0.41666666666666669</v>
@@ -1791,10 +1788,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AG7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH7" t="s">
         <v>113</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>114</v>
       </c>
       <c r="AI7" s="1">
         <v>0.41666666666666669</v>
@@ -1803,10 +1800,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AK7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AL7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AM7" s="1">
         <v>0.41666666666666669</v>
@@ -1815,34 +1812,34 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AO7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP7" t="s">
         <v>116</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS7" t="s">
         <v>117</v>
       </c>
-      <c r="AQ7" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>118</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AU7" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW7" t="s">
         <v>119</v>
       </c>
-      <c r="AU7" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV7" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>120</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>121</v>
       </c>
       <c r="AY7" s="1">
         <v>0.41666666666666669</v>
@@ -1853,124 +1850,124 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
         <v>82</v>
       </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>83</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>84</v>
       </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
       <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
         <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>70</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P8">
         <v>3173649859</v>
       </c>
       <c r="V8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z8" t="s">
         <v>110</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD8" t="s">
         <v>111</v>
       </c>
-      <c r="AA8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD8" t="s">
+      <c r="AE8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AG8" t="s">
         <v>112</v>
       </c>
-      <c r="AE8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>113</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL8" t="s">
         <v>114</v>
       </c>
-      <c r="AI8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AL8" t="s">
+      <c r="AM8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AO8" t="s">
         <v>115</v>
       </c>
-      <c r="AM8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>116</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS8" t="s">
         <v>117</v>
       </c>
-      <c r="AQ8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>118</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW8" t="s">
         <v>119</v>
       </c>
-      <c r="AU8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>120</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>121</v>
       </c>
       <c r="AY8" s="1">
         <v>0.45833333333333331</v>
@@ -1981,25 +1978,25 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>87</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>89</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>90</v>
-      </c>
-      <c r="I9" t="s">
-        <v>91</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
@@ -2008,25 +2005,25 @@
         <v>680001</v>
       </c>
       <c r="L9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P9">
         <v>4488870</v>
       </c>
       <c r="V9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z9" t="s">
         <v>110</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>111</v>
       </c>
       <c r="AA9" s="1">
         <v>0.41666666666666669</v>
@@ -2035,10 +2032,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AC9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE9" s="1">
         <v>0.41666666666666669</v>
@@ -2047,10 +2044,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AG9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH9" t="s">
         <v>113</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>114</v>
       </c>
       <c r="AI9" s="1">
         <v>0.41666666666666669</v>
@@ -2059,10 +2056,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AK9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AL9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AM9" s="1">
         <v>0.41666666666666669</v>
@@ -2071,34 +2068,34 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AO9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP9" t="s">
         <v>116</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS9" t="s">
         <v>117</v>
       </c>
-      <c r="AQ9" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS9" t="s">
+      <c r="AT9" t="s">
         <v>118</v>
       </c>
-      <c r="AT9" t="s">
+      <c r="AU9" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW9" t="s">
         <v>119</v>
       </c>
-      <c r="AU9" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>120</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>121</v>
       </c>
       <c r="AY9" s="1">
         <v>0.41666666666666669</v>

--- a/Archivos CSV/Inventory Location/inventory_location template site_MaajiCO.xlsx
+++ b/Archivos CSV/Inventory Location/inventory_location template site_MaajiCO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvargasp\Documents\Commerce-Conect-FF\Archivos CSV\Inventory Location\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvargasp\Documents\Archivos MAAJI\Archivos CSV\Inventory Location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33389238-41C7-4BB6-9E09-4BD126A11284}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE620428-6145-4455-8C0B-91A980984922}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6945" xr2:uid="{F1F2D59A-6786-4EBD-AB3D-AB089D2830A2}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>CO</t>
+  </si>
+  <si>
+    <t>(GMT-05:00) Bogota</t>
   </si>
   <si>
     <t>(1) 5306581</t>
@@ -863,13 +866,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774A88B6-025C-4213-9962-8FA505AD9F0D}">
   <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -999,7 +1002,7 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA1" t="s">
         <v>25</v>
@@ -1011,7 +1014,7 @@
         <v>27</v>
       </c>
       <c r="AD1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE1" t="s">
         <v>28</v>
@@ -1023,7 +1026,7 @@
         <v>30</v>
       </c>
       <c r="AH1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AI1" t="s">
         <v>31</v>
@@ -1035,7 +1038,7 @@
         <v>33</v>
       </c>
       <c r="AL1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM1" t="s">
         <v>34</v>
@@ -1047,7 +1050,7 @@
         <v>36</v>
       </c>
       <c r="AP1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AQ1" t="s">
         <v>37</v>
@@ -1059,7 +1062,7 @@
         <v>39</v>
       </c>
       <c r="AT1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AU1" t="s">
         <v>40</v>
@@ -1071,7 +1074,7 @@
         <v>42</v>
       </c>
       <c r="AX1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AY1" t="s">
         <v>43</v>
@@ -1085,7 +1088,7 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -1106,28 +1109,28 @@
         <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA2" s="1">
         <v>0.41666666666666669</v>
@@ -1136,10 +1139,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AC2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE2" s="1">
         <v>0.41666666666666669</v>
@@ -1148,10 +1151,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AG2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI2" s="1">
         <v>0.41666666666666669</v>
@@ -1160,10 +1163,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AK2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM2" s="1">
         <v>0.41666666666666669</v>
@@ -1172,10 +1175,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AO2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ2" s="1">
         <v>0.41666666666666669</v>
@@ -1184,10 +1187,10 @@
         <v>0.875</v>
       </c>
       <c r="AS2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AU2" s="1">
         <v>0.41666666666666669</v>
@@ -1196,10 +1199,10 @@
         <v>0.875</v>
       </c>
       <c r="AW2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AX2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AY2" s="1">
         <v>0.5</v>
@@ -1210,124 +1213,124 @@
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
         <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P3">
         <v>3234886286</v>
       </c>
       <c r="V3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AK3" t="s">
         <v>109</v>
       </c>
-      <c r="Z3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AL3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV3" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX3" t="s">
         <v>121</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU3" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>120</v>
       </c>
       <c r="AY3" s="1">
         <v>0.45833333333333331</v>
@@ -1338,25 +1341,25 @@
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
         <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" t="s">
-        <v>58</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
@@ -1365,97 +1368,97 @@
         <v>130001</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P4">
         <v>6643079</v>
       </c>
       <c r="V4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AK4" t="s">
         <v>109</v>
       </c>
-      <c r="Z4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AC4" t="s">
+      <c r="AL4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX4" t="s">
         <v>121</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>120</v>
       </c>
       <c r="AY4" s="1">
         <v>0.45833333333333331</v>
@@ -1466,124 +1469,124 @@
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AK5" t="s">
         <v>109</v>
       </c>
-      <c r="Z5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AL5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX5" t="s">
         <v>121</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AF5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV5" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>120</v>
       </c>
       <c r="AY5" s="1">
         <v>0.45833333333333331</v>
@@ -1594,25 +1597,25 @@
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -1621,25 +1624,25 @@
         <v>760001</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P6">
         <v>3481149</v>
       </c>
       <c r="V6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA6" s="1">
         <v>0.41666666666666669</v>
@@ -1648,10 +1651,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AC6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE6" s="1">
         <v>0.41666666666666669</v>
@@ -1660,10 +1663,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AG6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI6" s="1">
         <v>0.41666666666666669</v>
@@ -1672,10 +1675,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AK6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM6" s="1">
         <v>0.41666666666666669</v>
@@ -1684,10 +1687,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AO6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ6" s="1">
         <v>0.41666666666666669</v>
@@ -1696,10 +1699,10 @@
         <v>0.875</v>
       </c>
       <c r="AS6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AU6" s="1">
         <v>0.41666666666666669</v>
@@ -1708,10 +1711,10 @@
         <v>0.875</v>
       </c>
       <c r="AW6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AX6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AY6" s="1">
         <v>0.45833333333333331</v>
@@ -1722,25 +1725,25 @@
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
@@ -1749,25 +1752,25 @@
         <v>130001</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P7">
         <v>3205600544</v>
       </c>
       <c r="V7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA7" s="1">
         <v>0.41666666666666669</v>
@@ -1776,10 +1779,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AC7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE7" s="1">
         <v>0.41666666666666669</v>
@@ -1788,10 +1791,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AG7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI7" s="1">
         <v>0.41666666666666669</v>
@@ -1800,10 +1803,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AK7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM7" s="1">
         <v>0.41666666666666669</v>
@@ -1812,10 +1815,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AO7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ7" s="1">
         <v>0.41666666666666669</v>
@@ -1824,10 +1827,10 @@
         <v>0.875</v>
       </c>
       <c r="AS7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AU7" s="1">
         <v>0.41666666666666669</v>
@@ -1836,10 +1839,10 @@
         <v>0.875</v>
       </c>
       <c r="AW7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AX7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AY7" s="1">
         <v>0.41666666666666669</v>
@@ -1850,124 +1853,124 @@
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P8">
         <v>3173649859</v>
       </c>
       <c r="V8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AK8" t="s">
         <v>109</v>
       </c>
-      <c r="Z8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AC8" t="s">
+      <c r="AL8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX8" t="s">
         <v>121</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>120</v>
       </c>
       <c r="AY8" s="1">
         <v>0.45833333333333331</v>
@@ -1978,25 +1981,25 @@
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
@@ -2005,25 +2008,25 @@
         <v>680001</v>
       </c>
       <c r="L9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P9">
         <v>4488870</v>
       </c>
       <c r="V9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Z9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AA9" s="1">
         <v>0.41666666666666669</v>
@@ -2032,10 +2035,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AC9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE9" s="1">
         <v>0.41666666666666669</v>
@@ -2044,10 +2047,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AG9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AH9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AI9" s="1">
         <v>0.41666666666666669</v>
@@ -2056,10 +2059,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AK9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AL9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM9" s="1">
         <v>0.41666666666666669</v>
@@ -2068,10 +2071,10 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="AO9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AQ9" s="1">
         <v>0.41666666666666669</v>
@@ -2080,10 +2083,10 @@
         <v>0.875</v>
       </c>
       <c r="AS9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AT9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AU9" s="1">
         <v>0.41666666666666669</v>
@@ -2092,10 +2095,10 @@
         <v>0.875</v>
       </c>
       <c r="AW9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AX9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AY9" s="1">
         <v>0.41666666666666669</v>
